--- a/Prices/dns/dns--Ноутбук--Mar-25--3.xlsx
+++ b/Prices/dns/dns--Ноутбук--Mar-25--3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$231</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="657">
   <si>
     <t>Name</t>
   </si>
@@ -1901,9 +1904,6 @@
   </si>
   <si>
     <t>dns</t>
-  </si>
-  <si>
-    <t>1930</t>
   </si>
   <si>
     <t>10</t>
@@ -2065,8 +2065,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2074,9 +2074,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2114,7 +2114,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2184,7 +2184,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2360,7 +2360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2462,9 +2464,6 @@
       <c r="K3" t="s">
         <v>628</v>
       </c>
-      <c r="L3" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -2498,7 +2497,7 @@
         <v>628</v>
       </c>
       <c r="L4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2532,9 +2531,6 @@
       <c r="K5" t="s">
         <v>628</v>
       </c>
-      <c r="L5" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -2600,7 +2596,7 @@
         <v>628</v>
       </c>
       <c r="L7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2667,7 +2663,7 @@
         <v>628</v>
       </c>
       <c r="L9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2702,7 +2698,7 @@
         <v>628</v>
       </c>
       <c r="L10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2737,7 +2733,7 @@
         <v>628</v>
       </c>
       <c r="L11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2867,9 +2863,6 @@
       <c r="K15" t="s">
         <v>628</v>
       </c>
-      <c r="L15" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -2902,9 +2895,6 @@
       <c r="K16" t="s">
         <v>628</v>
       </c>
-      <c r="L16" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
@@ -2938,7 +2928,7 @@
         <v>628</v>
       </c>
       <c r="L17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2972,9 +2962,6 @@
       <c r="K18" t="s">
         <v>628</v>
       </c>
-      <c r="L18" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
@@ -3007,9 +2994,6 @@
       <c r="K19" t="s">
         <v>628</v>
       </c>
-      <c r="L19" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
@@ -3043,7 +3027,7 @@
         <v>628</v>
       </c>
       <c r="L20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3077,9 +3061,6 @@
       <c r="K21" t="s">
         <v>628</v>
       </c>
-      <c r="L21" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
@@ -3113,7 +3094,7 @@
         <v>628</v>
       </c>
       <c r="L22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3148,7 +3129,7 @@
         <v>628</v>
       </c>
       <c r="L23" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3183,7 +3164,7 @@
         <v>628</v>
       </c>
       <c r="L24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3217,9 +3198,6 @@
       <c r="K25" t="s">
         <v>628</v>
       </c>
-      <c r="L25" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
@@ -3252,9 +3230,6 @@
       <c r="K26" t="s">
         <v>628</v>
       </c>
-      <c r="L26" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
@@ -3288,7 +3263,7 @@
         <v>628</v>
       </c>
       <c r="L27" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3323,7 +3298,7 @@
         <v>628</v>
       </c>
       <c r="L28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3357,9 +3332,6 @@
       <c r="K29" t="s">
         <v>628</v>
       </c>
-      <c r="L29" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
@@ -3392,9 +3364,6 @@
       <c r="K30" t="s">
         <v>628</v>
       </c>
-      <c r="L30" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
@@ -3427,9 +3396,6 @@
       <c r="K31" t="s">
         <v>628</v>
       </c>
-      <c r="L31" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
@@ -3462,9 +3428,6 @@
       <c r="K32" t="s">
         <v>628</v>
       </c>
-      <c r="L32" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
@@ -3497,9 +3460,6 @@
       <c r="K33" t="s">
         <v>628</v>
       </c>
-      <c r="L33" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
@@ -3532,9 +3492,6 @@
       <c r="K34" t="s">
         <v>628</v>
       </c>
-      <c r="L34" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
@@ -3568,7 +3525,7 @@
         <v>628</v>
       </c>
       <c r="L35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3602,9 +3559,6 @@
       <c r="K36" t="s">
         <v>628</v>
       </c>
-      <c r="L36" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
@@ -3637,9 +3591,6 @@
       <c r="K37" t="s">
         <v>628</v>
       </c>
-      <c r="L37" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
@@ -3673,7 +3624,7 @@
         <v>628</v>
       </c>
       <c r="L38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3707,9 +3658,6 @@
       <c r="K39" t="s">
         <v>628</v>
       </c>
-      <c r="L39" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
@@ -3743,7 +3691,7 @@
         <v>628</v>
       </c>
       <c r="L40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3777,9 +3725,6 @@
       <c r="K41" t="s">
         <v>628</v>
       </c>
-      <c r="L41" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
@@ -3812,9 +3757,6 @@
       <c r="K42" t="s">
         <v>628</v>
       </c>
-      <c r="L42" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
@@ -3848,7 +3790,7 @@
         <v>628</v>
       </c>
       <c r="L43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3883,7 +3825,7 @@
         <v>628</v>
       </c>
       <c r="L44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3918,7 +3860,7 @@
         <v>628</v>
       </c>
       <c r="L45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3952,9 +3894,6 @@
       <c r="K46" t="s">
         <v>628</v>
       </c>
-      <c r="L46" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
@@ -3988,7 +3927,7 @@
         <v>628</v>
       </c>
       <c r="L47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4022,9 +3961,6 @@
       <c r="K48" t="s">
         <v>628</v>
       </c>
-      <c r="L48" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
@@ -4058,7 +3994,7 @@
         <v>628</v>
       </c>
       <c r="L49" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4092,9 +4028,6 @@
       <c r="K50" t="s">
         <v>628</v>
       </c>
-      <c r="L50" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
@@ -4127,9 +4060,6 @@
       <c r="K51" t="s">
         <v>628</v>
       </c>
-      <c r="L51" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
@@ -4163,7 +4093,7 @@
         <v>628</v>
       </c>
       <c r="L52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4198,7 +4128,7 @@
         <v>628</v>
       </c>
       <c r="L53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4232,9 +4162,6 @@
       <c r="K54" t="s">
         <v>628</v>
       </c>
-      <c r="L54" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
@@ -4267,9 +4194,6 @@
       <c r="K55" t="s">
         <v>628</v>
       </c>
-      <c r="L55" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
@@ -4303,7 +4227,7 @@
         <v>628</v>
       </c>
       <c r="L56" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4337,9 +4261,6 @@
       <c r="K57" t="s">
         <v>628</v>
       </c>
-      <c r="L57" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
@@ -4373,7 +4294,7 @@
         <v>628</v>
       </c>
       <c r="L58" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4407,9 +4328,6 @@
       <c r="K59" t="s">
         <v>628</v>
       </c>
-      <c r="L59" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
@@ -4443,7 +4361,7 @@
         <v>628</v>
       </c>
       <c r="L60" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4478,7 +4396,7 @@
         <v>628</v>
       </c>
       <c r="L61" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4512,9 +4430,6 @@
       <c r="K62" t="s">
         <v>628</v>
       </c>
-      <c r="L62" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
@@ -4548,7 +4463,7 @@
         <v>628</v>
       </c>
       <c r="L63" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4583,7 +4498,7 @@
         <v>628</v>
       </c>
       <c r="L64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4618,7 +4533,7 @@
         <v>628</v>
       </c>
       <c r="L65" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4652,9 +4567,6 @@
       <c r="K66" t="s">
         <v>628</v>
       </c>
-      <c r="L66" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
@@ -4688,7 +4600,7 @@
         <v>628</v>
       </c>
       <c r="L67" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4723,7 +4635,7 @@
         <v>628</v>
       </c>
       <c r="L68" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4758,7 +4670,7 @@
         <v>628</v>
       </c>
       <c r="L69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4793,7 +4705,7 @@
         <v>628</v>
       </c>
       <c r="L70" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4828,7 +4740,7 @@
         <v>628</v>
       </c>
       <c r="L71" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4863,7 +4775,7 @@
         <v>628</v>
       </c>
       <c r="L72" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4898,7 +4810,7 @@
         <v>628</v>
       </c>
       <c r="L73" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4933,7 +4845,7 @@
         <v>628</v>
       </c>
       <c r="L74" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4968,7 +4880,7 @@
         <v>628</v>
       </c>
       <c r="L75" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5002,9 +4914,6 @@
       <c r="K76" t="s">
         <v>628</v>
       </c>
-      <c r="L76" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
@@ -5038,7 +4947,7 @@
         <v>628</v>
       </c>
       <c r="L77" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5072,9 +4981,6 @@
       <c r="K78" t="s">
         <v>628</v>
       </c>
-      <c r="L78" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
@@ -5107,9 +5013,6 @@
       <c r="K79" t="s">
         <v>628</v>
       </c>
-      <c r="L79" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
@@ -5143,7 +5046,7 @@
         <v>628</v>
       </c>
       <c r="L80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5178,7 +5081,7 @@
         <v>628</v>
       </c>
       <c r="L81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5245,7 +5148,7 @@
         <v>628</v>
       </c>
       <c r="L83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5280,7 +5183,7 @@
         <v>628</v>
       </c>
       <c r="L84" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5314,9 +5217,6 @@
       <c r="K85" t="s">
         <v>628</v>
       </c>
-      <c r="L85" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
@@ -5350,7 +5250,7 @@
         <v>628</v>
       </c>
       <c r="L86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5385,7 +5285,7 @@
         <v>628</v>
       </c>
       <c r="L87" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5420,7 +5320,7 @@
         <v>628</v>
       </c>
       <c r="L88" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5455,7 +5355,7 @@
         <v>628</v>
       </c>
       <c r="L89" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5489,9 +5389,6 @@
       <c r="K90" t="s">
         <v>628</v>
       </c>
-      <c r="L90" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
@@ -5525,7 +5422,7 @@
         <v>628</v>
       </c>
       <c r="L91" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5560,7 +5457,7 @@
         <v>628</v>
       </c>
       <c r="L92" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5594,9 +5491,6 @@
       <c r="K93" t="s">
         <v>628</v>
       </c>
-      <c r="L93" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
@@ -5629,9 +5523,6 @@
       <c r="K94" t="s">
         <v>628</v>
       </c>
-      <c r="L94" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
@@ -5664,9 +5555,6 @@
       <c r="K95" t="s">
         <v>628</v>
       </c>
-      <c r="L95" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
@@ -5699,9 +5587,6 @@
       <c r="K96" t="s">
         <v>628</v>
       </c>
-      <c r="L96" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
@@ -5735,7 +5620,7 @@
         <v>628</v>
       </c>
       <c r="L97" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5770,7 +5655,7 @@
         <v>628</v>
       </c>
       <c r="L98" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5804,9 +5689,6 @@
       <c r="K99" t="s">
         <v>628</v>
       </c>
-      <c r="L99" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
@@ -5839,9 +5721,6 @@
       <c r="K100" t="s">
         <v>628</v>
       </c>
-      <c r="L100" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
@@ -5875,7 +5754,7 @@
         <v>628</v>
       </c>
       <c r="L101" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5910,7 +5789,7 @@
         <v>628</v>
       </c>
       <c r="L102" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5944,9 +5823,6 @@
       <c r="K103" t="s">
         <v>628</v>
       </c>
-      <c r="L103" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
@@ -5979,9 +5855,6 @@
       <c r="K104" t="s">
         <v>628</v>
       </c>
-      <c r="L104" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
@@ -6014,9 +5887,6 @@
       <c r="K105" t="s">
         <v>628</v>
       </c>
-      <c r="L105" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
@@ -6049,9 +5919,6 @@
       <c r="K106" t="s">
         <v>628</v>
       </c>
-      <c r="L106" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
@@ -6085,7 +5952,7 @@
         <v>628</v>
       </c>
       <c r="L107" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6120,7 +5987,7 @@
         <v>628</v>
       </c>
       <c r="L108" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6155,7 +6022,7 @@
         <v>628</v>
       </c>
       <c r="L109" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6190,7 +6057,7 @@
         <v>628</v>
       </c>
       <c r="L110" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6225,7 +6092,7 @@
         <v>628</v>
       </c>
       <c r="L111" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6260,7 +6127,7 @@
         <v>628</v>
       </c>
       <c r="L112" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6295,7 +6162,7 @@
         <v>628</v>
       </c>
       <c r="L113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6330,7 +6197,7 @@
         <v>628</v>
       </c>
       <c r="L114" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6365,7 +6232,7 @@
         <v>628</v>
       </c>
       <c r="L115" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6400,7 +6267,7 @@
         <v>628</v>
       </c>
       <c r="L116" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6435,7 +6302,7 @@
         <v>628</v>
       </c>
       <c r="L117" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6470,7 +6337,7 @@
         <v>628</v>
       </c>
       <c r="L118" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6505,7 +6372,7 @@
         <v>628</v>
       </c>
       <c r="L119" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6572,7 +6439,7 @@
         <v>628</v>
       </c>
       <c r="L121" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6607,7 +6474,7 @@
         <v>628</v>
       </c>
       <c r="L122" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6641,9 +6508,6 @@
       <c r="K123" t="s">
         <v>628</v>
       </c>
-      <c r="L123" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
@@ -6708,9 +6572,6 @@
       <c r="K125" t="s">
         <v>628</v>
       </c>
-      <c r="L125" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
@@ -6743,9 +6604,6 @@
       <c r="K126" t="s">
         <v>628</v>
       </c>
-      <c r="L126" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
@@ -6778,9 +6636,6 @@
       <c r="K127" t="s">
         <v>628</v>
       </c>
-      <c r="L127" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
@@ -6814,7 +6669,7 @@
         <v>628</v>
       </c>
       <c r="L128" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6849,7 +6704,7 @@
         <v>628</v>
       </c>
       <c r="L129" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6884,7 +6739,7 @@
         <v>628</v>
       </c>
       <c r="L130" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6919,7 +6774,7 @@
         <v>628</v>
       </c>
       <c r="L131" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6954,7 +6809,7 @@
         <v>628</v>
       </c>
       <c r="L132" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6988,9 +6843,6 @@
       <c r="K133" t="s">
         <v>628</v>
       </c>
-      <c r="L133" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
@@ -7023,9 +6875,6 @@
       <c r="K134" t="s">
         <v>628</v>
       </c>
-      <c r="L134" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
@@ -7091,7 +6940,7 @@
         <v>628</v>
       </c>
       <c r="L136" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7125,9 +6974,6 @@
       <c r="K137" t="s">
         <v>628</v>
       </c>
-      <c r="L137" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
@@ -7161,7 +7007,7 @@
         <v>628</v>
       </c>
       <c r="L138" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7196,7 +7042,7 @@
         <v>628</v>
       </c>
       <c r="L139" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7230,9 +7076,6 @@
       <c r="K140" t="s">
         <v>628</v>
       </c>
-      <c r="L140" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
@@ -7265,9 +7108,6 @@
       <c r="K141" t="s">
         <v>628</v>
       </c>
-      <c r="L141" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
@@ -7301,7 +7141,7 @@
         <v>628</v>
       </c>
       <c r="L142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -7368,7 +7208,7 @@
         <v>628</v>
       </c>
       <c r="L144" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7403,7 +7243,7 @@
         <v>628</v>
       </c>
       <c r="L145" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7469,9 +7309,6 @@
       <c r="K147" t="s">
         <v>628</v>
       </c>
-      <c r="L147" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
@@ -7504,9 +7341,6 @@
       <c r="K148" t="s">
         <v>628</v>
       </c>
-      <c r="L148" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
@@ -7540,7 +7374,7 @@
         <v>628</v>
       </c>
       <c r="L149" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7574,9 +7408,6 @@
       <c r="K150" t="s">
         <v>628</v>
       </c>
-      <c r="L150" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1">
@@ -7610,7 +7441,7 @@
         <v>628</v>
       </c>
       <c r="L151" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7644,9 +7475,6 @@
       <c r="K152" t="s">
         <v>628</v>
       </c>
-      <c r="L152" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
@@ -7680,7 +7508,7 @@
         <v>628</v>
       </c>
       <c r="L153" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7715,7 +7543,7 @@
         <v>628</v>
       </c>
       <c r="L154" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -7750,7 +7578,7 @@
         <v>628</v>
       </c>
       <c r="L155" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7785,7 +7613,7 @@
         <v>628</v>
       </c>
       <c r="L156" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7820,7 +7648,7 @@
         <v>628</v>
       </c>
       <c r="L157" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7855,7 +7683,7 @@
         <v>628</v>
       </c>
       <c r="L158" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7889,9 +7717,6 @@
       <c r="K159" t="s">
         <v>628</v>
       </c>
-      <c r="L159" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1">
@@ -7925,7 +7750,7 @@
         <v>628</v>
       </c>
       <c r="L160" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -7960,7 +7785,7 @@
         <v>628</v>
       </c>
       <c r="L161" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7994,9 +7819,6 @@
       <c r="K162" t="s">
         <v>628</v>
       </c>
-      <c r="L162" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1">
@@ -8030,7 +7852,7 @@
         <v>628</v>
       </c>
       <c r="L163" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8097,7 +7919,7 @@
         <v>628</v>
       </c>
       <c r="L165" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8163,9 +7985,6 @@
       <c r="K167" t="s">
         <v>628</v>
       </c>
-      <c r="L167" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="1">
@@ -8198,9 +8017,6 @@
       <c r="K168" t="s">
         <v>628</v>
       </c>
-      <c r="L168" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1">
@@ -8234,7 +8050,7 @@
         <v>628</v>
       </c>
       <c r="L169" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8268,9 +8084,6 @@
       <c r="K170" t="s">
         <v>628</v>
       </c>
-      <c r="L170" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1">
@@ -8304,7 +8117,7 @@
         <v>628</v>
       </c>
       <c r="L171" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -8338,9 +8151,6 @@
       <c r="K172" t="s">
         <v>628</v>
       </c>
-      <c r="L172" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1">
@@ -8373,9 +8183,6 @@
       <c r="K173" t="s">
         <v>628</v>
       </c>
-      <c r="L173" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1">
@@ -8409,7 +8216,7 @@
         <v>628</v>
       </c>
       <c r="L174" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8443,9 +8250,6 @@
       <c r="K175" t="s">
         <v>628</v>
       </c>
-      <c r="L175" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1">
@@ -8478,9 +8282,6 @@
       <c r="K176" t="s">
         <v>628</v>
       </c>
-      <c r="L176" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1">
@@ -8513,9 +8314,6 @@
       <c r="K177" t="s">
         <v>628</v>
       </c>
-      <c r="L177" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1">
@@ -8549,7 +8347,7 @@
         <v>628</v>
       </c>
       <c r="L178" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8583,9 +8381,6 @@
       <c r="K179" t="s">
         <v>628</v>
       </c>
-      <c r="L179" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1">
@@ -8619,7 +8414,7 @@
         <v>628</v>
       </c>
       <c r="L180" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8653,9 +8448,6 @@
       <c r="K181" t="s">
         <v>628</v>
       </c>
-      <c r="L181" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1">
@@ -8720,9 +8512,6 @@
       <c r="K183" t="s">
         <v>628</v>
       </c>
-      <c r="L183" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1">
@@ -8755,9 +8544,6 @@
       <c r="K184" t="s">
         <v>628</v>
       </c>
-      <c r="L184" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1">
@@ -8791,7 +8577,7 @@
         <v>628</v>
       </c>
       <c r="L185" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8826,7 +8612,7 @@
         <v>628</v>
       </c>
       <c r="L186" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8893,7 +8679,7 @@
         <v>628</v>
       </c>
       <c r="L188" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8927,9 +8713,6 @@
       <c r="K189" t="s">
         <v>628</v>
       </c>
-      <c r="L189" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1">
@@ -8962,9 +8745,6 @@
       <c r="K190" t="s">
         <v>628</v>
       </c>
-      <c r="L190" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1">
@@ -8997,9 +8777,6 @@
       <c r="K191" t="s">
         <v>628</v>
       </c>
-      <c r="L191" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="1">
@@ -9032,9 +8809,6 @@
       <c r="K192" t="s">
         <v>628</v>
       </c>
-      <c r="L192" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="1">
@@ -9068,7 +8842,7 @@
         <v>628</v>
       </c>
       <c r="L193" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9134,9 +8908,6 @@
       <c r="K195" t="s">
         <v>628</v>
       </c>
-      <c r="L195" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="1">
@@ -9170,7 +8941,7 @@
         <v>628</v>
       </c>
       <c r="L196" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -9204,9 +8975,6 @@
       <c r="K197" t="s">
         <v>628</v>
       </c>
-      <c r="L197" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="1">
@@ -9239,9 +9007,6 @@
       <c r="K198" t="s">
         <v>628</v>
       </c>
-      <c r="L198" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="1">
@@ -9275,7 +9040,7 @@
         <v>628</v>
       </c>
       <c r="L199" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9309,9 +9074,6 @@
       <c r="K200" t="s">
         <v>628</v>
       </c>
-      <c r="L200" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="1">
@@ -9345,7 +9107,7 @@
         <v>628</v>
       </c>
       <c r="L201" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9379,9 +9141,6 @@
       <c r="K202" t="s">
         <v>628</v>
       </c>
-      <c r="L202" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="1">
@@ -9414,9 +9173,6 @@
       <c r="K203" t="s">
         <v>628</v>
       </c>
-      <c r="L203" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="1">
@@ -9450,7 +9206,7 @@
         <v>628</v>
       </c>
       <c r="L204" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9484,9 +9240,6 @@
       <c r="K205" t="s">
         <v>628</v>
       </c>
-      <c r="L205" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="1">
@@ -9519,9 +9272,6 @@
       <c r="K206" t="s">
         <v>628</v>
       </c>
-      <c r="L206" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="1">
@@ -9587,7 +9337,7 @@
         <v>628</v>
       </c>
       <c r="L208" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9621,9 +9371,6 @@
       <c r="K209" t="s">
         <v>628</v>
       </c>
-      <c r="L209" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="1">
@@ -9657,7 +9404,7 @@
         <v>628</v>
       </c>
       <c r="L210" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9723,9 +9470,6 @@
       <c r="K212" t="s">
         <v>628</v>
       </c>
-      <c r="L212" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="1">
@@ -9758,9 +9502,6 @@
       <c r="K213" t="s">
         <v>628</v>
       </c>
-      <c r="L213" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="1">
@@ -9794,7 +9535,7 @@
         <v>628</v>
       </c>
       <c r="L214" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9828,9 +9569,6 @@
       <c r="K215" t="s">
         <v>628</v>
       </c>
-      <c r="L215" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="1">
@@ -9895,9 +9633,6 @@
       <c r="K217" t="s">
         <v>628</v>
       </c>
-      <c r="L217" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="1">
@@ -9931,7 +9666,7 @@
         <v>628</v>
       </c>
       <c r="L218" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -9966,7 +9701,7 @@
         <v>628</v>
       </c>
       <c r="L219" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -10001,7 +9736,7 @@
         <v>628</v>
       </c>
       <c r="L220" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -10035,9 +9770,6 @@
       <c r="K221" t="s">
         <v>628</v>
       </c>
-      <c r="L221" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="1">
@@ -10070,9 +9802,6 @@
       <c r="K222" t="s">
         <v>628</v>
       </c>
-      <c r="L222" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="1">
@@ -10105,9 +9834,6 @@
       <c r="K223" t="s">
         <v>628</v>
       </c>
-      <c r="L223" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="1">
@@ -10140,9 +9866,6 @@
       <c r="K224" t="s">
         <v>628</v>
       </c>
-      <c r="L224" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="1">
@@ -10175,9 +9898,6 @@
       <c r="K225" t="s">
         <v>628</v>
       </c>
-      <c r="L225" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="1">
@@ -10243,7 +9963,7 @@
         <v>628</v>
       </c>
       <c r="L227" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10278,7 +9998,7 @@
         <v>628</v>
       </c>
       <c r="L228" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10313,7 +10033,7 @@
         <v>628</v>
       </c>
       <c r="L229" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10348,7 +10068,7 @@
         <v>628</v>
       </c>
       <c r="L230" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10382,11 +10102,9 @@
       <c r="K231" t="s">
         <v>628</v>
       </c>
-      <c r="L231" t="s">
-        <v>629</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L231"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
